--- a/数值设计/标准数值.xlsx
+++ b/数值设计/标准数值.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="375" windowWidth="14805" windowHeight="7740" tabRatio="535" activeTab="8"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="526">
   <si>
     <t>战斗力=1/3*(攻击效果)+1/3*(反噬效果)+1/3*(聚气效果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>锦斓袈裟</t>
-  </si>
-  <si>
-    <t>金箍棒</t>
   </si>
   <si>
     <t>锁定</t>
@@ -2025,6 +2022,66 @@
     <t>合成卡牌CD值h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Huayuan</t>
+  </si>
+  <si>
+    <t>S_Ziqixiangyao</t>
+  </si>
+  <si>
+    <t>S_Jinghua</t>
+  </si>
+  <si>
+    <t>S_Wuhuanfazhen</t>
+  </si>
+  <si>
+    <t>S_Jiashahuti</t>
+  </si>
+  <si>
+    <t>S_Jingu</t>
+  </si>
+  <si>
+    <t>S_Luanbangda</t>
+  </si>
+  <si>
+    <t>S_Qianjinding</t>
+  </si>
+  <si>
+    <t>S_Jitu</t>
+  </si>
+  <si>
+    <t>S_Longlin</t>
+  </si>
+  <si>
+    <t>S_Julongshuaiwei</t>
+  </si>
+  <si>
+    <t>S_Dingpakongza</t>
+  </si>
+  <si>
+    <t>S_Zhanpaojiashen</t>
+  </si>
+  <si>
+    <t>S_Jifeng</t>
+  </si>
+  <si>
+    <t>S_Fengzhen</t>
+  </si>
+  <si>
+    <t>S_Yueyazhan</t>
+  </si>
+  <si>
+    <t>如意金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2240,7 +2297,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2369,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169344000"/>
-        <c:axId val="180294400"/>
+        <c:axId val="173033344"/>
+        <c:axId val="173034880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169344000"/>
+        <c:axId val="173033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180294400"/>
+        <c:crossAx val="173034880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2390,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180294400"/>
+        <c:axId val="173034880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,14 +2457,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169344000"/>
+        <c:crossAx val="173033344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2438,7 +2493,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2557,11 +2611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180340608"/>
-        <c:axId val="180342144"/>
+        <c:axId val="182927744"/>
+        <c:axId val="182929280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180340608"/>
+        <c:axId val="182927744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180342144"/>
+        <c:crossAx val="182929280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2578,7 +2632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180342144"/>
+        <c:axId val="182929280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,14 +2643,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180340608"/>
+        <c:crossAx val="182927744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2626,7 +2679,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2685,11 +2737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180937472"/>
-        <c:axId val="180939008"/>
+        <c:axId val="183045120"/>
+        <c:axId val="183091968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180937472"/>
+        <c:axId val="183045120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180939008"/>
+        <c:crossAx val="183091968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2706,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180939008"/>
+        <c:axId val="183091968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,14 +2769,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180937472"/>
+        <c:crossAx val="183045120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2754,7 +2805,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2813,11 +2863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111876736"/>
-        <c:axId val="111907200"/>
+        <c:axId val="183441664"/>
+        <c:axId val="183443456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111876736"/>
+        <c:axId val="183441664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111907200"/>
+        <c:crossAx val="183443456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2834,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111907200"/>
+        <c:axId val="183443456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,14 +2895,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111876736"/>
+        <c:crossAx val="183441664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2882,7 +2931,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2942,11 +2990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111921408"/>
-        <c:axId val="111931392"/>
+        <c:axId val="183104640"/>
+        <c:axId val="183459840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111921408"/>
+        <c:axId val="183104640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2955,7 +3003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111931392"/>
+        <c:crossAx val="183459840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2963,7 +3011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111931392"/>
+        <c:axId val="183459840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,14 +3022,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111921408"/>
+        <c:crossAx val="183104640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3400,11 +3447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112548480"/>
-        <c:axId val="112558464"/>
+        <c:axId val="183504896"/>
+        <c:axId val="183506432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112548480"/>
+        <c:axId val="183504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112558464"/>
+        <c:crossAx val="183506432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3421,7 +3468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112558464"/>
+        <c:axId val="183506432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,14 +3479,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112548480"/>
+        <c:crossAx val="183504896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3689,9 +3735,9 @@
       <sheetName val="Boss怪-防御"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="C2">
@@ -4672,7 +4718,7 @@
     </row>
     <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -4698,7 +4744,7 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -4720,7 +4766,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -4743,12 +4789,12 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -4816,10 +4862,10 @@
         <v>56</v>
       </c>
       <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
         <v>156</v>
-      </c>
-      <c r="H15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -4827,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -4855,33 +4901,33 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" t="s">
         <v>221</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>222</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>223</v>
       </c>
-      <c r="J21" t="s">
-        <v>224</v>
-      </c>
       <c r="K21" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F22">
         <f>[1]唐三藏!$D$26</f>
@@ -4914,10 +4960,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23">
         <f>[1]孙悟空!$D$26</f>
@@ -4950,7 +4996,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F24">
         <f>[1]猪八戒!$D$26</f>
@@ -4983,10 +5029,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F25">
         <f>[1]沙和尚!$D$26</f>
@@ -5019,7 +5065,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F26">
         <f>[1]白龙马!$D$26</f>
@@ -5052,7 +5098,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F27">
         <f>[1]猎户刘伯钦!$D$26</f>
@@ -5085,7 +5131,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F28">
         <f>[1]悟空六意!$D$26</f>
@@ -5118,10 +5164,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F29">
         <f>[1]龟丞相!$D$26</f>
@@ -5154,10 +5200,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F30">
         <f>[1]凌虚子!$D$26</f>
@@ -5190,10 +5236,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F31">
         <f>[1]黑熊精!$D$26</f>
@@ -5226,10 +5272,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F32">
         <f>[1]虎先锋!$D$26</f>
@@ -5262,10 +5308,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F33">
         <f>[1]黄风怪!$D$26</f>
@@ -5298,7 +5344,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F34">
         <f>'[1]普通怪-攻击'!$D$26</f>
@@ -5323,10 +5369,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35">
         <f>'[1]普通怪-回复'!$D$26</f>
@@ -5351,10 +5397,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F36">
         <f>'[1]普通怪-敏捷'!$D$26</f>
@@ -5379,7 +5425,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F37">
         <f>'[1]普通怪-防御'!$D$26</f>
@@ -5404,7 +5450,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F38">
         <f>'[1]精英怪-攻击'!$D$26</f>
@@ -5429,10 +5475,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F39">
         <f>'[1]精英怪-回复'!$D$26</f>
@@ -5457,10 +5503,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40">
         <f>'[1]精英怪-敏捷'!$D$26</f>
@@ -5485,7 +5531,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F41">
         <f>'[1]精英怪-防御'!$D$26</f>
@@ -5510,7 +5556,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F42">
         <f>'[1]Boss怪-攻击'!$D$26</f>
@@ -5535,10 +5581,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F43">
         <f>'[1]Boss怪-回复'!$D$26</f>
@@ -5563,10 +5609,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F44">
         <f>'[1]Boss怪-敏捷'!$D$26</f>
@@ -5591,10 +5637,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F45">
         <f>'[1]Boss怪-防御'!$D$26</f>
@@ -5619,147 +5665,147 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5790,121 +5836,121 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" t="s">
         <v>364</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>365</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>366</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>367</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>368</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>369</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>371</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>372</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>373</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>374</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>375</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>376</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>377</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>378</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>379</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>380</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>381</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>382</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>383</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>384</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>385</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>386</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>387</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>388</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>389</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>390</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>391</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>392</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>393</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>394</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>395</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>396</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>397</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>398</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>399</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>400</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>401</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -5912,121 +5958,121 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.15">
@@ -6044,7 +6090,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
@@ -6065,7 +6111,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -6089,7 +6135,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
@@ -6370,7 +6416,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -6379,73 +6425,73 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>167</v>
-      </c>
       <c r="R1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T1" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="X1" s="18" t="s">
-        <v>298</v>
-      </c>
       <c r="AA1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB1" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>227</v>
       </c>
-      <c r="AD1" t="s">
-        <v>228</v>
-      </c>
       <c r="AE1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -9454,23 +9500,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s">
         <v>438</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -9478,10 +9525,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -9489,10 +9536,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -9500,10 +9547,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9511,10 +9558,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -9522,10 +9569,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9533,10 +9580,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -9544,10 +9591,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -9555,10 +9602,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -9566,10 +9613,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -9577,10 +9624,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -9588,10 +9635,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -9599,10 +9646,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -9610,10 +9657,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9621,10 +9668,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9632,10 +9679,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9643,10 +9690,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>467</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -9654,10 +9701,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>469</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -9665,10 +9712,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>471</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -9676,10 +9723,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>473</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -9687,10 +9734,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -9698,10 +9745,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>477</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -9709,10 +9756,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>479</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -9720,10 +9767,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>481</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -9731,10 +9778,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>483</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -9742,10 +9789,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>485</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -9753,10 +9800,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -9764,10 +9811,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>489</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -9775,10 +9822,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>491</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -9786,10 +9833,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>493</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -9800,6 +9847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -9813,90 +9861,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
         <v>311</v>
-      </c>
-      <c r="B6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
         <v>316</v>
-      </c>
-      <c r="B9" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
         <v>318</v>
-      </c>
-      <c r="B10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" t="s">
         <v>321</v>
-      </c>
-      <c r="B11" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -9934,22 +9982,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -9958,40 +10006,40 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" t="s">
         <v>166</v>
       </c>
-      <c r="R1" t="s">
-        <v>167</v>
-      </c>
       <c r="S1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" t="s">
         <v>225</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>226</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>227</v>
-      </c>
-      <c r="V1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -46164,13 +46212,13 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -46839,6 +46887,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46860,43 +46909,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" t="s">
         <v>283</v>
       </c>
-      <c r="B1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>284</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>286</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>287</v>
-      </c>
-      <c r="M1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -46908,22 +46957,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -46950,22 +46999,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" t="s">
         <v>505</v>
       </c>
-      <c r="E3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F3" t="s">
-        <v>506</v>
-      </c>
       <c r="G3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -46992,22 +47041,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E4" t="s">
         <v>432</v>
       </c>
-      <c r="D4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E4" t="s">
-        <v>433</v>
-      </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -47034,22 +47083,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="F5" t="s">
-        <v>506</v>
-      </c>
-      <c r="G5" t="s">
-        <v>433</v>
-      </c>
       <c r="H5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -47076,22 +47125,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" t="s">
         <v>505</v>
       </c>
-      <c r="E6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F6" t="s">
-        <v>506</v>
-      </c>
       <c r="G6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -47118,22 +47167,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -47160,22 +47209,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" t="s">
         <v>505</v>
       </c>
-      <c r="E8" t="s">
-        <v>432</v>
-      </c>
-      <c r="F8" t="s">
-        <v>506</v>
-      </c>
       <c r="G8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -47202,22 +47251,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -47244,22 +47293,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -47286,22 +47335,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" t="s">
         <v>434</v>
       </c>
-      <c r="D11" t="s">
-        <v>501</v>
-      </c>
-      <c r="E11" t="s">
-        <v>432</v>
-      </c>
-      <c r="F11" t="s">
-        <v>506</v>
-      </c>
-      <c r="G11" t="s">
-        <v>435</v>
-      </c>
       <c r="H11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -47328,22 +47377,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -47370,22 +47419,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F13" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
         <v>505</v>
-      </c>
-      <c r="G13" t="s">
-        <v>432</v>
-      </c>
-      <c r="H13" t="s">
-        <v>506</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -47431,25 +47480,25 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -47802,11 +47851,11 @@
   <dimension ref="A1:BI178"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G159" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47868,73 +47917,73 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.15">
       <c r="J1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" t="s">
         <v>339</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>340</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>341</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>342</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>343</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>344</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>345</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>346</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>347</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>348</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>349</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>350</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>351</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>352</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>353</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>355</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>356</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>357</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>358</v>
-      </c>
       <c r="BB1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD1" t="s">
         <v>361</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>362</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="40.5" x14ac:dyDescent="0.15">
@@ -47942,10 +47991,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -47957,166 +48006,166 @@
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
+        <v>198</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S2" t="s">
-        <v>196</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="U2" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="BH2" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -48124,7 +48173,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.15">
@@ -48132,7 +48184,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D13" ca="1" si="0">P4+AC4+AP4+AQ4+BH4</f>
@@ -48143,7 +48195,7 @@
         <v>42.57</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -48152,7 +48204,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K4">
         <f>J4</f>
@@ -48286,7 +48338,7 @@
         <v>202.29</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -48295,7 +48347,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K68" si="15">J5</f>
@@ -48426,7 +48478,7 @@
         <v>1540.69</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -48435,7 +48487,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K6">
         <f t="shared" si="15"/>
@@ -48562,7 +48614,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -48689,7 +48741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -48815,7 +48867,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -48941,7 +48993,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -49067,7 +49119,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -49193,7 +49245,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -49319,7 +49371,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -49439,7 +49491,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.15">
       <c r="D15" s="16">
         <f t="shared" ref="D15:D24" ca="1" si="20">P15+AC15+AP15+AQ15+BH15</f>
@@ -49450,7 +49506,7 @@
         <v>532.98</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -49459,7 +49515,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K15">
         <f>J15</f>
@@ -49590,7 +49646,7 @@
         <v>5059.8900000000003</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -49599,7 +49655,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K16">
         <f>J16</f>
@@ -49726,7 +49782,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -49852,7 +49908,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -49978,7 +50034,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -50104,7 +50160,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -50230,7 +50286,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -50356,7 +50412,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -50482,7 +50538,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -50608,7 +50664,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -50731,6 +50787,9 @@
     <row r="25" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C25" s="14" t="s">
         <v>62</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="3:61" x14ac:dyDescent="0.15">
@@ -50743,7 +50802,7 @@
         <v>42.57</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -50752,7 +50811,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K26">
         <f t="shared" si="15"/>
@@ -50885,7 +50944,7 @@
         <v>202.29</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -50894,7 +50953,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K27">
         <f t="shared" si="15"/>
@@ -51027,7 +51086,7 @@
         <v>532.98</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -51036,7 +51095,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K28">
         <f t="shared" si="15"/>
@@ -51169,7 +51228,7 @@
         <v>5059.8900000000003</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -51178,7 +51237,7 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K29">
         <f t="shared" si="15"/>
@@ -51307,7 +51366,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -51433,7 +51492,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -51559,7 +51618,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -51685,7 +51744,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -51811,7 +51870,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G34">
         <v>9</v>
@@ -51937,7 +51996,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -52057,7 +52116,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
     <row r="37" spans="3:61" x14ac:dyDescent="0.15">
       <c r="D37" s="16">
         <f t="shared" ref="D37:D46" ca="1" si="50">P37+AC37+AP37+AQ37+BH37</f>
@@ -52068,7 +52131,7 @@
         <v>1540.69</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -52077,7 +52140,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K37">
         <f t="shared" si="15"/>
@@ -52203,7 +52266,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -52329,7 +52392,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -52455,7 +52518,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -52581,7 +52644,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -52707,7 +52770,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -52833,7 +52896,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43">
         <v>7</v>
@@ -52959,7 +53022,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44">
         <v>8</v>
@@ -53085,7 +53148,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45">
         <v>9</v>
@@ -53211,7 +53274,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46">
         <v>10</v>
@@ -53334,6 +53397,9 @@
     <row r="47" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C47" s="14" t="s">
         <v>63</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="3:61" x14ac:dyDescent="0.15">
@@ -53346,7 +53412,7 @@
         <v>42.57</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -53355,7 +53421,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K48">
         <f t="shared" si="15"/>
@@ -53488,7 +53554,7 @@
         <v>202.29</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -53497,7 +53563,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K49">
         <f t="shared" si="15"/>
@@ -53626,7 +53692,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -53752,7 +53818,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -53878,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -54004,7 +54070,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -54130,7 +54196,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G54">
         <v>7</v>
@@ -54256,7 +54322,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55">
         <v>8</v>
@@ -54382,7 +54448,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56">
         <v>9</v>
@@ -54508,7 +54574,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -54630,7 +54696,10 @@
     </row>
     <row r="58" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C58" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="3:61" x14ac:dyDescent="0.15">
@@ -54643,7 +54712,7 @@
         <v>42.57</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -54652,7 +54721,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K59">
         <f>J59</f>
@@ -54785,7 +54854,7 @@
         <v>202.29</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -54794,7 +54863,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K60">
         <f>J60</f>
@@ -54923,7 +54992,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -55049,7 +55118,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -55175,7 +55244,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -55301,7 +55370,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64">
         <v>6</v>
@@ -55427,7 +55496,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65">
         <v>7</v>
@@ -55553,7 +55622,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66">
         <v>8</v>
@@ -55679,7 +55748,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67">
         <v>9</v>
@@ -55805,7 +55874,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G68">
         <v>10</v>
@@ -55927,7 +55996,10 @@
     </row>
     <row r="69" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C69" s="14" t="s">
-        <v>64</v>
+        <v>525</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="70" spans="3:61" x14ac:dyDescent="0.15">
@@ -55940,7 +56012,7 @@
         <v>42.57</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -55949,7 +56021,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J70">
         <f ca="1">ROUND(E70,0)</f>
@@ -56080,7 +56152,7 @@
         <v>202.29</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -56089,7 +56161,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J71">
         <f t="shared" ref="J71:J73" ca="1" si="115">ROUND(E71,0)</f>
@@ -56220,7 +56292,7 @@
         <v>532.98</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -56229,7 +56301,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="115"/>
@@ -56360,7 +56432,7 @@
         <v>5059.8900000000003</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -56369,7 +56441,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="115"/>
@@ -56496,7 +56568,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -56622,7 +56694,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G75">
         <v>6</v>
@@ -56748,7 +56820,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -56874,7 +56946,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G77">
         <v>8</v>
@@ -57000,7 +57072,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78">
         <v>9</v>
@@ -57126,7 +57198,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -57246,7 +57318,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
     <row r="81" spans="3:61" x14ac:dyDescent="0.15">
       <c r="D81" s="16">
         <f t="shared" ref="D81:D90" ca="1" si="116">P81+AC81+AP81+AQ81+BH81</f>
@@ -57257,7 +57333,7 @@
         <v>1540.69</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -57266,7 +57342,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K81">
         <f t="shared" si="96"/>
@@ -57392,7 +57468,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -57518,7 +57594,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -57644,7 +57720,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G84">
         <v>4</v>
@@ -57770,7 +57846,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85">
         <v>5</v>
@@ -57896,7 +57972,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86">
         <v>6</v>
@@ -58022,7 +58098,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -58148,7 +58224,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G88">
         <v>8</v>
@@ -58274,7 +58350,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G89">
         <v>9</v>
@@ -58400,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90">
         <v>10</v>
@@ -58522,7 +58598,10 @@
     </row>
     <row r="91" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C91" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="3:61" x14ac:dyDescent="0.15">
@@ -58535,7 +58614,7 @@
         <v>42.57</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -58544,7 +58623,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J92">
         <f ca="1">ROUND(E92,0)</f>
@@ -58675,7 +58754,7 @@
         <v>202.29</v>
       </c>
       <c r="F93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -58684,7 +58763,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J93">
         <f ca="1">ROUND(E93,0)</f>
@@ -58811,7 +58890,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -58937,7 +59016,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -59063,7 +59142,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G96">
         <v>5</v>
@@ -59189,7 +59268,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G97">
         <v>6</v>
@@ -59315,7 +59394,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G98">
         <v>7</v>
@@ -59441,7 +59520,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G99">
         <v>8</v>
@@ -59567,7 +59646,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G100">
         <v>9</v>
@@ -59693,7 +59772,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -59815,7 +59894,10 @@
     </row>
     <row r="102" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C102" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="3:61" x14ac:dyDescent="0.15">
@@ -59828,7 +59910,7 @@
         <v>42.57</v>
       </c>
       <c r="F103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -59837,7 +59919,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K103">
         <f t="shared" si="96"/>
@@ -59973,7 +60055,7 @@
         <v>202.29</v>
       </c>
       <c r="F104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -59982,7 +60064,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K104">
         <f t="shared" si="96"/>
@@ -60118,7 +60200,7 @@
         <v>1540.69</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -60127,7 +60209,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K105">
         <f t="shared" si="96"/>
@@ -60259,7 +60341,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -60385,7 +60467,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -60511,7 +60593,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G108">
         <v>6</v>
@@ -60637,7 +60719,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G109">
         <v>7</v>
@@ -60763,7 +60845,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G110">
         <v>8</v>
@@ -60889,7 +60971,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G111">
         <v>9</v>
@@ -61015,7 +61097,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -61135,7 +61217,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
     <row r="114" spans="3:61" x14ac:dyDescent="0.15">
       <c r="D114" s="16">
         <f t="shared" ref="D114:D123" ca="1" si="161">P114+AC114+AP114+AQ114+BH114</f>
@@ -61146,7 +61232,7 @@
         <v>532.98</v>
       </c>
       <c r="F114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -61155,7 +61241,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K114">
         <f t="shared" si="96"/>
@@ -61285,7 +61371,7 @@
         <v>5059.8900000000003</v>
       </c>
       <c r="F115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -61294,7 +61380,7 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K115">
         <f t="shared" si="96"/>
@@ -61420,7 +61506,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -61546,7 +61632,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -61672,7 +61758,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -61798,7 +61884,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G119">
         <v>6</v>
@@ -61924,7 +62010,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G120">
         <v>7</v>
@@ -62050,7 +62136,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G121">
         <v>8</v>
@@ -62176,7 +62262,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G122">
         <v>9</v>
@@ -62302,7 +62388,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -62424,7 +62510,10 @@
     </row>
     <row r="124" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C124" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="125" spans="3:61" x14ac:dyDescent="0.15">
@@ -62437,7 +62526,7 @@
         <v>42.57</v>
       </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -62446,7 +62535,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J125">
         <f ca="1">ROUND(E125,0)</f>
@@ -62577,7 +62666,7 @@
         <v>202.29</v>
       </c>
       <c r="F126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -62586,7 +62675,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J126">
         <f ca="1">ROUND(E126,0)</f>
@@ -62713,7 +62802,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -62839,7 +62928,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -62965,7 +63054,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G129">
         <v>5</v>
@@ -63091,7 +63180,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G130">
         <v>6</v>
@@ -63217,7 +63306,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G131">
         <v>7</v>
@@ -63343,7 +63432,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G132">
         <v>8</v>
@@ -63469,7 +63558,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G133">
         <v>9</v>
@@ -63595,7 +63684,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -63717,7 +63806,10 @@
     </row>
     <row r="135" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C135" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="3:61" x14ac:dyDescent="0.15">
@@ -63730,7 +63822,7 @@
         <v>42.57</v>
       </c>
       <c r="F136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -63739,7 +63831,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K136">
         <f t="shared" si="191"/>
@@ -63878,7 +63970,7 @@
         <v>202.29</v>
       </c>
       <c r="F137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -63887,7 +63979,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K137">
         <f t="shared" si="191"/>
@@ -64022,7 +64114,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -64148,7 +64240,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G139">
         <v>4</v>
@@ -64274,7 +64366,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G140">
         <v>5</v>
@@ -64400,7 +64492,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G141">
         <v>6</v>
@@ -64526,7 +64618,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G142">
         <v>7</v>
@@ -64652,7 +64744,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G143">
         <v>8</v>
@@ -64778,7 +64870,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G144">
         <v>9</v>
@@ -64904,7 +64996,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -65026,7 +65118,10 @@
     </row>
     <row r="146" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C146" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="3:61" x14ac:dyDescent="0.15">
@@ -65039,7 +65134,7 @@
         <v>42.57</v>
       </c>
       <c r="F147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -65048,7 +65143,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K147">
         <f t="shared" si="191"/>
@@ -65181,7 +65276,7 @@
         <v>202.29</v>
       </c>
       <c r="F148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -65190,7 +65285,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K148">
         <f t="shared" si="191"/>
@@ -65323,7 +65418,7 @@
         <v>532.98</v>
       </c>
       <c r="F149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -65332,7 +65427,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K149">
         <f t="shared" si="191"/>
@@ -65465,7 +65560,7 @@
         <v>5059.8900000000003</v>
       </c>
       <c r="F150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G150">
         <v>4</v>
@@ -65474,7 +65569,7 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K150">
         <f t="shared" si="191"/>
@@ -65603,7 +65698,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G151">
         <v>5</v>
@@ -65729,7 +65824,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G152">
         <v>6</v>
@@ -65855,7 +65950,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G153">
         <v>7</v>
@@ -65981,7 +66076,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G154">
         <v>8</v>
@@ -66107,7 +66202,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G155">
         <v>9</v>
@@ -66233,7 +66328,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -66353,7 +66448,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
     <row r="158" spans="3:61" x14ac:dyDescent="0.15">
       <c r="D158" s="16">
         <f t="shared" ref="D158:D167" ca="1" si="225">P158+AC158+AP158+AQ158+BH158</f>
@@ -66364,7 +66463,7 @@
         <v>1540.69</v>
       </c>
       <c r="F158" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -66373,7 +66472,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K158">
         <f t="shared" si="191"/>
@@ -66505,7 +66604,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -66631,7 +66730,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -66757,7 +66856,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -66883,7 +66982,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -67009,7 +67108,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G163">
         <v>6</v>
@@ -67135,7 +67234,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G164">
         <v>7</v>
@@ -67261,7 +67360,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G165">
         <v>8</v>
@@ -67387,7 +67486,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G166">
         <v>9</v>
@@ -67513,7 +67612,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G167">
         <v>10</v>
@@ -67635,7 +67734,10 @@
     </row>
     <row r="168" spans="3:61" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C168" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="3:61" x14ac:dyDescent="0.15">
@@ -67648,7 +67750,7 @@
         <v>42.57</v>
       </c>
       <c r="F169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -67657,7 +67759,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J169">
         <f ca="1">ROUND(E169,0)</f>
@@ -67788,7 +67890,7 @@
         <v>202.29</v>
       </c>
       <c r="F170" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -67797,7 +67899,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J170">
         <f ca="1">ROUND(E170,0)</f>
@@ -67924,7 +68026,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -68050,7 +68152,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -68176,7 +68278,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G173">
         <v>5</v>
@@ -68302,7 +68404,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G174">
         <v>6</v>
@@ -68428,7 +68530,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G175">
         <v>7</v>
@@ -68554,7 +68656,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G176">
         <v>8</v>
@@ -68680,7 +68782,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G177">
         <v>9</v>
@@ -68806,7 +68908,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G178">
         <v>10</v>
@@ -68941,10 +69043,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L2" sqref="L2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -68956,42 +69059,48 @@
     <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
         <v>280</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" t="s">
         <v>281</v>
       </c>
-      <c r="C1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" t="s">
-        <v>282</v>
-      </c>
       <c r="F1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" t="s">
         <v>289</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>291</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>292</v>
       </c>
-      <c r="K1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>法宝人物匹配!B2</f>
         <v>紫金钵盂</v>
@@ -69000,10 +69109,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -69026,8 +69135,16 @@
       <c r="K2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" t="str">
+        <f>技能设计!F3</f>
+        <v>S_Huayuan</v>
+      </c>
+      <c r="M2" t="str">
+        <f>技能设计!F14</f>
+        <v>S_Ziqixiangyao</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>法宝人物匹配!C2</f>
         <v>九环锡杖</v>
@@ -69036,10 +69153,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -69062,8 +69179,16 @@
       <c r="K3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" t="str">
+        <f>技能设计!F25</f>
+        <v>S_Jinghua</v>
+      </c>
+      <c r="M3" t="str">
+        <f>技能设计!F36</f>
+        <v>S_Wuhuanfazhen</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>法宝人物匹配!D2</f>
         <v>锦斓袈裟</v>
@@ -69072,10 +69197,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -69098,8 +69223,12 @@
       <c r="K4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" t="str">
+        <f>技能设计!F47</f>
+        <v>S_Jiashahuti</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>法宝人物匹配!E2</f>
         <v>经箍咒</v>
@@ -69108,10 +69237,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -69134,8 +69263,12 @@
       <c r="K5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" t="str">
+        <f>技能设计!F58</f>
+        <v>S_Jingu</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>法宝人物匹配!F2</f>
         <v>如意金箍棒</v>
@@ -69144,10 +69277,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -69170,8 +69303,16 @@
       <c r="K6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" t="str">
+        <f>技能设计!F69</f>
+        <v>S_Luanbangda</v>
+      </c>
+      <c r="M6" t="str">
+        <f>技能设计!F80</f>
+        <v>S_Qianjinding</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>法宝人物匹配!G2</f>
         <v>御龙银枪</v>
@@ -69180,10 +69321,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -69206,8 +69347,12 @@
       <c r="K7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" t="str">
+        <f>技能设计!F91</f>
+        <v>S_Jitu</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>法宝人物匹配!H2</f>
         <v>龙鳞</v>
@@ -69216,10 +69361,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -69242,8 +69387,16 @@
       <c r="K8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" t="str">
+        <f>技能设计!F102</f>
+        <v>S_Longlin</v>
+      </c>
+      <c r="M8" t="str">
+        <f>技能设计!F113</f>
+        <v>S_Julongshuaiwei</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>法宝人物匹配!I2</f>
         <v>九齿钉钯</v>
@@ -69252,10 +69405,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -69278,8 +69431,12 @@
       <c r="K9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" t="str">
+        <f>技能设计!F124</f>
+        <v>S_Dingpakongza</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>法宝人物匹配!J2</f>
         <v>元帅战袍</v>
@@ -69288,10 +69445,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -69314,8 +69471,12 @@
       <c r="K10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" t="str">
+        <f>技能设计!F135</f>
+        <v>S_Zhanpaojiashen</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>法宝人物匹配!K2</f>
         <v>定风珠</v>
@@ -69324,10 +69485,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -69350,8 +69511,16 @@
       <c r="K11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" t="str">
+        <f>技能设计!F146</f>
+        <v>S_Jifeng</v>
+      </c>
+      <c r="M11" t="str">
+        <f>技能设计!F157</f>
+        <v>S_Fengzhen</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>法宝人物匹配!L2</f>
         <v>月牙铲</v>
@@ -69360,10 +69529,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -69386,8 +69555,12 @@
       <c r="K12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" t="str">
+        <f>技能设计!F168</f>
+        <v>S_Yueyazhan</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>法宝人物匹配!M2</f>
         <v>降魔杵</v>
@@ -69396,10 +69569,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -69423,7 +69596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>法宝人物匹配!N2</f>
         <v>宣花板斧</v>
@@ -69432,10 +69605,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -69459,7 +69632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>法宝人物匹配!O2</f>
         <v>仙兵琵琶</v>
@@ -69468,10 +69641,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -69495,7 +69668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>法宝人物匹配!P2</f>
         <v>天王宝剑</v>
@@ -69504,10 +69677,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -69540,10 +69713,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -69576,10 +69749,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -69612,10 +69785,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -69648,10 +69821,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -69684,10 +69857,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -69720,10 +69893,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -69756,10 +69929,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -69792,10 +69965,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -69828,10 +70001,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -69864,10 +70037,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -69900,10 +70073,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -69936,10 +70109,10 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -69972,10 +70145,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -70008,10 +70181,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -70044,10 +70217,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -70080,10 +70253,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -70116,10 +70289,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -70152,10 +70325,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -70188,10 +70361,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -70224,10 +70397,10 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -70260,10 +70433,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -70296,10 +70469,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -70332,10 +70505,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E39">
         <v>3</v>

--- a/数值设计/标准数值.xlsx
+++ b/数值设计/标准数值.xlsx
@@ -2263,8 +2263,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.1988407699037624E-2"/>
-          <c:y val="0.20140055409740468"/>
-          <c:w val="0.90239807524059545"/>
+          <c:y val="0.20140055409740473"/>
+          <c:w val="0.90239807524059557"/>
           <c:h val="0.68261956838728488"/>
         </c:manualLayout>
       </c:layout>
@@ -2370,24 +2370,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108964096"/>
-        <c:axId val="155691264"/>
+        <c:axId val="130612224"/>
+        <c:axId val="131540096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108964096"/>
+        <c:axId val="130612224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155691264"/>
+        <c:crossAx val="131540096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155691264"/>
+        <c:axId val="131540096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2395,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108964096"/>
+        <c:crossAx val="130612224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,7 +2408,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2418,9 +2418,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2525,24 +2523,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="161329920"/>
-        <c:axId val="161331456"/>
+        <c:axId val="134002560"/>
+        <c:axId val="134004096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161329920"/>
+        <c:axId val="134002560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161331456"/>
+        <c:crossAx val="134004096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161331456"/>
+        <c:axId val="134004096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,21 +2548,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161329920"/>
+        <c:crossAx val="134002560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2574,9 +2571,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2621,24 +2616,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="161663232"/>
-        <c:axId val="161673216"/>
+        <c:axId val="134016384"/>
+        <c:axId val="134091904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161663232"/>
+        <c:axId val="134016384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161673216"/>
+        <c:crossAx val="134091904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161673216"/>
+        <c:axId val="134091904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,21 +2641,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161663232"/>
+        <c:crossAx val="134016384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2670,9 +2664,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2717,24 +2709,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162008448"/>
-        <c:axId val="162030720"/>
+        <c:axId val="134107904"/>
+        <c:axId val="134109440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162008448"/>
+        <c:axId val="134107904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162030720"/>
+        <c:crossAx val="134109440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162030720"/>
+        <c:axId val="134109440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2742,21 +2734,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162008448"/>
+        <c:crossAx val="134107904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2766,9 +2757,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2814,24 +2803,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162054912"/>
-        <c:axId val="162056448"/>
+        <c:axId val="134137728"/>
+        <c:axId val="134139264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162054912"/>
+        <c:axId val="134137728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162056448"/>
+        <c:crossAx val="134139264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162056448"/>
+        <c:axId val="134139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,21 +2828,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162054912"/>
+        <c:crossAx val="134137728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3229,24 +3217,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="163213696"/>
-        <c:axId val="163215232"/>
+        <c:axId val="134767744"/>
+        <c:axId val="134769280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163213696"/>
+        <c:axId val="134767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163215232"/>
+        <c:crossAx val="134769280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163215232"/>
+        <c:axId val="134769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3242,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163213696"/>
+        <c:crossAx val="134767744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3267,7 +3255,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -68904,7 +68892,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/数值设计/标准数值.xlsx
+++ b/数值设计/标准数值.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="14805" windowHeight="7740" tabRatio="593" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="593" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="设计与公式" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="544">
   <si>
     <t>战斗力=1/3*(攻击效果)+1/3*(反噬效果)+1/3*(聚气效果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,112 +1814,6 @@
     <t>C_HuangFengguai</t>
   </si>
   <si>
-    <t>C_LingjiPusa</t>
-  </si>
-  <si>
-    <t>灵吉菩萨</t>
-  </si>
-  <si>
-    <t>C_Julingshen</t>
-  </si>
-  <si>
-    <t>巨灵神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Duoluozha</t>
-  </si>
-  <si>
-    <t>多罗吒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Piliuli</t>
-  </si>
-  <si>
-    <t>毗琉璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Liubocha</t>
-  </si>
-  <si>
-    <t>留博叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Pishamen</t>
-  </si>
-  <si>
-    <t>毗沙门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Nezha</t>
-  </si>
-  <si>
-    <t>哪咤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Jinzha</t>
-  </si>
-  <si>
-    <t>金吒</t>
-  </si>
-  <si>
-    <t>C_Muzha</t>
-  </si>
-  <si>
-    <t>木吒</t>
-  </si>
-  <si>
-    <t>C_Lijing</t>
-  </si>
-  <si>
-    <t>李靖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Erlangshen</t>
-  </si>
-  <si>
-    <t>二郎神</t>
-  </si>
-  <si>
-    <t>C_Xiaotianquan</t>
-  </si>
-  <si>
-    <t>哮天犬</t>
-  </si>
-  <si>
-    <t>C_Taishanglaojun</t>
-  </si>
-  <si>
-    <t>太上老君</t>
-  </si>
-  <si>
-    <t>C_Yudi</t>
-  </si>
-  <si>
-    <t>玉帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Wangmu</t>
-  </si>
-  <si>
-    <t>王母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_Rulai</t>
-  </si>
-  <si>
-    <t>如来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杀器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2044,11 +1938,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C_PutongAttack</t>
+  </si>
+  <si>
+    <t>C_PutongRecover</t>
+  </si>
+  <si>
+    <t>C_PutongAgile</t>
+  </si>
+  <si>
+    <t>C_PutongDefense</t>
+  </si>
+  <si>
+    <t>C_JingyingAttack</t>
+  </si>
+  <si>
+    <t>C_JingyingRecover</t>
+  </si>
+  <si>
+    <t>C_JingyingAgile</t>
+  </si>
+  <si>
+    <t>C_JingyingDefense</t>
+  </si>
+  <si>
+    <t>C_BossAttack</t>
+  </si>
+  <si>
+    <t>C_BossRecover</t>
+  </si>
+  <si>
+    <t>C_BossAgile</t>
+  </si>
+  <si>
+    <t>C_BossDefense</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_LingjiPusa</t>
+  </si>
+  <si>
+    <t>灵吉菩萨</t>
+  </si>
+  <si>
+    <t>C_Julingshen</t>
+  </si>
+  <si>
+    <t>巨灵神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Duoluozha</t>
+  </si>
+  <si>
+    <t>多罗吒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Piliuli</t>
+  </si>
+  <si>
+    <t>毗琉璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Liubocha</t>
+  </si>
+  <si>
+    <t>留博叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Pishamen</t>
+  </si>
+  <si>
+    <t>毗沙门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Nezha</t>
+  </si>
+  <si>
+    <t>哪咤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Jinzha</t>
+  </si>
+  <si>
+    <t>金吒</t>
+  </si>
+  <si>
+    <t>C_Muzha</t>
+  </si>
+  <si>
+    <t>木吒</t>
+  </si>
+  <si>
+    <t>C_Lijing</t>
+  </si>
+  <si>
+    <t>李靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Erlangshen</t>
+  </si>
+  <si>
+    <t>二郎神</t>
+  </si>
+  <si>
+    <t>C_Xiaotianquan</t>
+  </si>
+  <si>
+    <t>哮天犬</t>
+  </si>
+  <si>
+    <t>C_Taishanglaojun</t>
+  </si>
+  <si>
+    <t>太上老君</t>
+  </si>
+  <si>
     <t>C_Lingbaofashi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灵宝法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Yudi</t>
+  </si>
+  <si>
+    <t>玉帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Wangmu</t>
+  </si>
+  <si>
+    <t>王母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Rulai</t>
+  </si>
+  <si>
+    <t>如来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2394,11 +2486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183118464"/>
-        <c:axId val="183124352"/>
+        <c:axId val="168470400"/>
+        <c:axId val="168579840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183118464"/>
+        <c:axId val="168470400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183124352"/>
+        <c:crossAx val="168579840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2415,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183124352"/>
+        <c:axId val="168579840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183118464"/>
+        <c:crossAx val="168470400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2580,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183768192"/>
-        <c:axId val="183769728"/>
+        <c:axId val="199611904"/>
+        <c:axId val="201611904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183768192"/>
+        <c:axId val="199611904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183769728"/>
+        <c:crossAx val="201611904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2601,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183769728"/>
+        <c:axId val="201611904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183768192"/>
+        <c:crossAx val="199611904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,11 +2798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183848960"/>
-        <c:axId val="183850496"/>
+        <c:axId val="209427840"/>
+        <c:axId val="132068480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183848960"/>
+        <c:axId val="209427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183850496"/>
+        <c:crossAx val="132068480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183850496"/>
+        <c:axId val="132068480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183848960"/>
+        <c:crossAx val="209427840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2832,11 +2924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183868416"/>
-        <c:axId val="183878400"/>
+        <c:axId val="132076672"/>
+        <c:axId val="132078208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183868416"/>
+        <c:axId val="132076672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183878400"/>
+        <c:crossAx val="132078208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2853,7 +2945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183878400"/>
+        <c:axId val="132078208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183868416"/>
+        <c:crossAx val="132076672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2959,11 +3051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206263040"/>
-        <c:axId val="206264576"/>
+        <c:axId val="132086400"/>
+        <c:axId val="132088192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206263040"/>
+        <c:axId val="132086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +3064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206264576"/>
+        <c:crossAx val="132088192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2980,7 +3072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206264576"/>
+        <c:axId val="132088192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +3083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206263040"/>
+        <c:crossAx val="132086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3416,11 +3508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209970688"/>
-        <c:axId val="209972224"/>
+        <c:axId val="163479552"/>
+        <c:axId val="163481088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209970688"/>
+        <c:axId val="163479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +3521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209972224"/>
+        <c:crossAx val="163481088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3437,7 +3529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209972224"/>
+        <c:axId val="163481088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,7 +3540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209970688"/>
+        <c:crossAx val="163479552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3708,11 +3800,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>12458</v>
@@ -3738,11 +3825,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>16851</v>
@@ -3768,11 +3850,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>16110</v>
@@ -3798,11 +3875,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>14540</v>
@@ -3828,11 +3900,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="7">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>13340</v>
@@ -3858,11 +3925,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="8">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>11875</v>
@@ -3888,11 +3950,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="9">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>14246</v>
@@ -3918,11 +3975,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>12394</v>
@@ -3948,11 +4000,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>11795</v>
@@ -3978,11 +4025,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>14647</v>
@@ -4008,11 +4050,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="13">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>12163</v>
@@ -4038,11 +4075,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="14">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>12027</v>
@@ -4068,11 +4100,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="15">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>10187</v>
@@ -4092,11 +4119,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="16">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>9738</v>
@@ -4116,11 +4138,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="17">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>9081</v>
@@ -4140,11 +4157,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="18">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>9908</v>
@@ -4164,11 +4176,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="19">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>13685</v>
@@ -4188,11 +4195,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="20">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>12986</v>
@@ -4212,11 +4214,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="21">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>13048</v>
@@ -4236,11 +4233,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="22">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>14266</v>
@@ -4260,11 +4252,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="23">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>16251</v>
@@ -4284,11 +4271,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="24">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>16197</v>
@@ -4308,11 +4290,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="25">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>16465</v>
@@ -4332,11 +4309,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="26">
-        <row r="2">
-          <cell r="C2">
-            <v>50</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="D26">
             <v>16863</v>
@@ -5886,7 +5858,7 @@
         <v>383</v>
       </c>
       <c r="AC1" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="AD1" t="s">
         <v>384</v>
@@ -5996,7 +5968,7 @@
         <v>131</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>132</v>
@@ -6133,8 +6105,8 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
-        <f>玩家卡牌配置表!C14</f>
-        <v>灵吉菩萨</v>
+        <f>玩家卡牌配置表!C31</f>
+        <v>普通攻击</v>
       </c>
       <c r="K15" s="2">
         <v>10</v>
@@ -6142,8 +6114,8 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
-        <f>玩家卡牌配置表!C15</f>
-        <v>巨灵神</v>
+        <f>玩家卡牌配置表!C32</f>
+        <v>普通回复</v>
       </c>
       <c r="N16" s="2">
         <v>10</v>
@@ -6151,8 +6123,8 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
-        <f>玩家卡牌配置表!C16</f>
-        <v>多罗吒</v>
+        <f>玩家卡牌配置表!C33</f>
+        <v>普通敏捷</v>
       </c>
       <c r="O17" s="2">
         <v>10</v>
@@ -6160,8 +6132,8 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
-        <f>玩家卡牌配置表!C17</f>
-        <v>毗琉璃</v>
+        <f>玩家卡牌配置表!C34</f>
+        <v>普通防御</v>
       </c>
       <c r="P18" s="2">
         <v>10</v>
@@ -6169,8 +6141,8 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
-        <f>玩家卡牌配置表!C18</f>
-        <v>留博叉</v>
+        <f>玩家卡牌配置表!C35</f>
+        <v>精英攻击</v>
       </c>
       <c r="Q19" s="2">
         <v>10</v>
@@ -6178,8 +6150,8 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
-        <f>玩家卡牌配置表!C19</f>
-        <v>毗沙门</v>
+        <f>玩家卡牌配置表!C36</f>
+        <v>精英回复</v>
       </c>
       <c r="R20" s="2">
         <v>10</v>
@@ -6190,8 +6162,8 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
-        <f>玩家卡牌配置表!C20</f>
-        <v>哪咤</v>
+        <f>玩家卡牌配置表!C37</f>
+        <v>精英敏捷</v>
       </c>
       <c r="T21" s="2">
         <v>10</v>
@@ -6205,8 +6177,8 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
-        <f>玩家卡牌配置表!C21</f>
-        <v>金吒</v>
+        <f>玩家卡牌配置表!C38</f>
+        <v>精英防御</v>
       </c>
       <c r="W22" s="2">
         <v>10</v>
@@ -6214,8 +6186,8 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
-        <f>玩家卡牌配置表!C22</f>
-        <v>木吒</v>
+        <f>玩家卡牌配置表!C39</f>
+        <v>Boss攻击</v>
       </c>
       <c r="X23" s="2">
         <v>10</v>
@@ -6223,8 +6195,8 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
-        <f>玩家卡牌配置表!C23</f>
-        <v>李靖</v>
+        <f>玩家卡牌配置表!C40</f>
+        <v>Boss回复</v>
       </c>
       <c r="Y24" s="2">
         <v>10</v>
@@ -6232,8 +6204,8 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
-        <f>玩家卡牌配置表!C24</f>
-        <v>二郎神</v>
+        <f>玩家卡牌配置表!C41</f>
+        <v>Boss敏捷</v>
       </c>
       <c r="Z25" s="2">
         <v>10</v>
@@ -6241,35 +6213,35 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
-        <f>玩家卡牌配置表!C25</f>
-        <v>哮天犬</v>
+        <f>玩家卡牌配置表!C42</f>
+        <v>Boss防御</v>
       </c>
       <c r="AA26" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A27" t="str">
-        <f>玩家卡牌配置表!C26</f>
-        <v>太上老君</v>
+      <c r="A27" t="e">
+        <f>玩家卡牌配置表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB27" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
-        <f>玩家卡牌配置表!C27</f>
-        <v>灵宝法师</v>
+      <c r="A28" t="e">
+        <f>玩家卡牌配置表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AC28" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A29" t="str">
-        <f>玩家卡牌配置表!C28</f>
-        <v>玉帝</v>
+      <c r="A29" t="e">
+        <f>玩家卡牌配置表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AD29" s="2">
         <v>10</v>
@@ -6279,9 +6251,9 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A30" t="str">
-        <f>玩家卡牌配置表!C29</f>
-        <v>王母</v>
+      <c r="A30" t="e">
+        <f>玩家卡牌配置表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AF30" s="2">
         <v>10</v>
@@ -6291,9 +6263,9 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A31" t="str">
-        <f>玩家卡牌配置表!C30</f>
-        <v>如来</v>
+      <c r="A31" t="e">
+        <f>玩家卡牌配置表!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AH31" s="2">
         <v>10</v>
@@ -9434,10 +9406,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9590,10 +9562,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9601,10 +9573,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9612,10 +9584,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9623,10 +9595,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -9634,10 +9606,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -9645,10 +9617,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -9656,10 +9628,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -9667,10 +9639,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -9678,10 +9650,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -9689,10 +9661,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -9700,10 +9672,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -9711,10 +9683,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -9722,10 +9694,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -9733,10 +9705,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -9744,10 +9716,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -9755,10 +9727,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -9766,10 +9738,142 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>480</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>485</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>490</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>492</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>493</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>494</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -46821,10 +46925,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46845,25 +46949,25 @@
         <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
         <v>416</v>
       </c>
       <c r="D1" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="E1" t="s">
         <v>417</v>
       </c>
       <c r="F1" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="G1" t="s">
         <v>418</v>
       </c>
       <c r="H1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="I1" t="s">
         <v>277</v>
@@ -46901,13 +47005,13 @@
         <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="G2" t="s">
         <v>421</v>
       </c>
       <c r="H2" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -46937,7 +47041,7 @@
         <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="E3" t="str">
         <f>法宝配置表!A6</f>
@@ -46951,7 +47055,7 @@
         <v>423</v>
       </c>
       <c r="H3" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -46989,13 +47093,13 @@
         <v>421</v>
       </c>
       <c r="F4" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="G4" t="s">
         <v>421</v>
       </c>
       <c r="H4" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -47033,13 +47137,13 @@
         <v>420</v>
       </c>
       <c r="F5" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G5" t="s">
         <v>421</v>
       </c>
       <c r="H5" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -47069,19 +47173,19 @@
         <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="E6" t="s">
         <v>420</v>
       </c>
       <c r="F6" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G6" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -47111,19 +47215,19 @@
         <v>423</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E7" t="s">
         <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G7" t="s">
         <v>423</v>
       </c>
       <c r="H7" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -47153,19 +47257,19 @@
         <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="E8" t="s">
         <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G8" t="s">
         <v>423</v>
       </c>
       <c r="H8" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -47195,19 +47299,19 @@
         <v>420</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="E9" t="s">
         <v>420</v>
       </c>
       <c r="F9" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G9" t="s">
         <v>423</v>
       </c>
       <c r="H9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -47237,19 +47341,19 @@
         <v>420</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="E10" t="s">
         <v>420</v>
       </c>
       <c r="F10" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G10" t="s">
         <v>420</v>
       </c>
       <c r="H10" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -47279,19 +47383,19 @@
         <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E11" t="s">
         <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G11" t="s">
         <v>423</v>
       </c>
       <c r="H11" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -47321,19 +47425,19 @@
         <v>423</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E12" t="s">
         <v>420</v>
       </c>
       <c r="F12" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G12" t="s">
         <v>423</v>
       </c>
       <c r="H12" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -47363,19 +47467,19 @@
         <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E13" t="s">
         <v>421</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="G13" t="s">
         <v>420</v>
       </c>
       <c r="H13" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -47391,6 +47495,510 @@
       </c>
       <c r="M13">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f>玩家卡牌配置表!C31</f>
+        <v>普通攻击</v>
+      </c>
+      <c r="B14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F14" t="s">
+        <v>509</v>
+      </c>
+      <c r="G14" t="s">
+        <v>509</v>
+      </c>
+      <c r="H14" t="s">
+        <v>509</v>
+      </c>
+      <c r="I14" t="s">
+        <v>508</v>
+      </c>
+      <c r="J14" t="s">
+        <v>508</v>
+      </c>
+      <c r="K14" t="s">
+        <v>508</v>
+      </c>
+      <c r="L14" t="s">
+        <v>508</v>
+      </c>
+      <c r="M14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" t="str">
+        <f>玩家卡牌配置表!C32</f>
+        <v>普通回复</v>
+      </c>
+      <c r="B15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" t="s">
+        <v>509</v>
+      </c>
+      <c r="D15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E15" t="s">
+        <v>509</v>
+      </c>
+      <c r="F15" t="s">
+        <v>509</v>
+      </c>
+      <c r="G15" t="s">
+        <v>509</v>
+      </c>
+      <c r="H15" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" t="s">
+        <v>508</v>
+      </c>
+      <c r="J15" t="s">
+        <v>508</v>
+      </c>
+      <c r="K15" t="s">
+        <v>508</v>
+      </c>
+      <c r="L15" t="s">
+        <v>508</v>
+      </c>
+      <c r="M15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" t="str">
+        <f>玩家卡牌配置表!C33</f>
+        <v>普通敏捷</v>
+      </c>
+      <c r="B16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" t="s">
+        <v>509</v>
+      </c>
+      <c r="D16" t="s">
+        <v>509</v>
+      </c>
+      <c r="E16" t="s">
+        <v>509</v>
+      </c>
+      <c r="F16" t="s">
+        <v>509</v>
+      </c>
+      <c r="G16" t="s">
+        <v>509</v>
+      </c>
+      <c r="H16" t="s">
+        <v>509</v>
+      </c>
+      <c r="I16" t="s">
+        <v>508</v>
+      </c>
+      <c r="J16" t="s">
+        <v>508</v>
+      </c>
+      <c r="K16" t="s">
+        <v>508</v>
+      </c>
+      <c r="L16" t="s">
+        <v>508</v>
+      </c>
+      <c r="M16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>玩家卡牌配置表!C34</f>
+        <v>普通防御</v>
+      </c>
+      <c r="B17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F17" t="s">
+        <v>509</v>
+      </c>
+      <c r="G17" t="s">
+        <v>509</v>
+      </c>
+      <c r="H17" t="s">
+        <v>509</v>
+      </c>
+      <c r="I17" t="s">
+        <v>508</v>
+      </c>
+      <c r="J17" t="s">
+        <v>508</v>
+      </c>
+      <c r="K17" t="s">
+        <v>508</v>
+      </c>
+      <c r="L17" t="s">
+        <v>508</v>
+      </c>
+      <c r="M17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>玩家卡牌配置表!C35</f>
+        <v>精英攻击</v>
+      </c>
+      <c r="B18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F18" t="s">
+        <v>509</v>
+      </c>
+      <c r="G18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H18" t="s">
+        <v>509</v>
+      </c>
+      <c r="I18" t="s">
+        <v>508</v>
+      </c>
+      <c r="J18" t="s">
+        <v>508</v>
+      </c>
+      <c r="K18" t="s">
+        <v>508</v>
+      </c>
+      <c r="L18" t="s">
+        <v>508</v>
+      </c>
+      <c r="M18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="str">
+        <f>玩家卡牌配置表!C36</f>
+        <v>精英回复</v>
+      </c>
+      <c r="B19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" t="s">
+        <v>509</v>
+      </c>
+      <c r="E19" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" t="s">
+        <v>509</v>
+      </c>
+      <c r="G19" t="s">
+        <v>509</v>
+      </c>
+      <c r="H19" t="s">
+        <v>509</v>
+      </c>
+      <c r="I19" t="s">
+        <v>508</v>
+      </c>
+      <c r="J19" t="s">
+        <v>508</v>
+      </c>
+      <c r="K19" t="s">
+        <v>508</v>
+      </c>
+      <c r="L19" t="s">
+        <v>508</v>
+      </c>
+      <c r="M19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="str">
+        <f>玩家卡牌配置表!C37</f>
+        <v>精英敏捷</v>
+      </c>
+      <c r="B20" t="s">
+        <v>508</v>
+      </c>
+      <c r="C20" t="s">
+        <v>509</v>
+      </c>
+      <c r="D20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" t="s">
+        <v>509</v>
+      </c>
+      <c r="F20" t="s">
+        <v>509</v>
+      </c>
+      <c r="G20" t="s">
+        <v>509</v>
+      </c>
+      <c r="H20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I20" t="s">
+        <v>508</v>
+      </c>
+      <c r="J20" t="s">
+        <v>508</v>
+      </c>
+      <c r="K20" t="s">
+        <v>508</v>
+      </c>
+      <c r="L20" t="s">
+        <v>508</v>
+      </c>
+      <c r="M20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="str">
+        <f>玩家卡牌配置表!C38</f>
+        <v>精英防御</v>
+      </c>
+      <c r="B21" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" t="s">
+        <v>509</v>
+      </c>
+      <c r="E21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F21" t="s">
+        <v>509</v>
+      </c>
+      <c r="G21" t="s">
+        <v>509</v>
+      </c>
+      <c r="H21" t="s">
+        <v>509</v>
+      </c>
+      <c r="I21" t="s">
+        <v>508</v>
+      </c>
+      <c r="J21" t="s">
+        <v>508</v>
+      </c>
+      <c r="K21" t="s">
+        <v>508</v>
+      </c>
+      <c r="L21" t="s">
+        <v>508</v>
+      </c>
+      <c r="M21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>玩家卡牌配置表!C39</f>
+        <v>Boss攻击</v>
+      </c>
+      <c r="B22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F22" t="s">
+        <v>509</v>
+      </c>
+      <c r="G22" t="s">
+        <v>509</v>
+      </c>
+      <c r="H22" t="s">
+        <v>509</v>
+      </c>
+      <c r="I22" t="s">
+        <v>508</v>
+      </c>
+      <c r="J22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K22" t="s">
+        <v>508</v>
+      </c>
+      <c r="L22" t="s">
+        <v>508</v>
+      </c>
+      <c r="M22" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>玩家卡牌配置表!C40</f>
+        <v>Boss回复</v>
+      </c>
+      <c r="B23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F23" t="s">
+        <v>509</v>
+      </c>
+      <c r="G23" t="s">
+        <v>509</v>
+      </c>
+      <c r="H23" t="s">
+        <v>509</v>
+      </c>
+      <c r="I23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J23" t="s">
+        <v>508</v>
+      </c>
+      <c r="K23" t="s">
+        <v>508</v>
+      </c>
+      <c r="L23" t="s">
+        <v>508</v>
+      </c>
+      <c r="M23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
+        <f>玩家卡牌配置表!C41</f>
+        <v>Boss敏捷</v>
+      </c>
+      <c r="B24" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" t="s">
+        <v>509</v>
+      </c>
+      <c r="E24" t="s">
+        <v>509</v>
+      </c>
+      <c r="F24" t="s">
+        <v>509</v>
+      </c>
+      <c r="G24" t="s">
+        <v>509</v>
+      </c>
+      <c r="H24" t="s">
+        <v>509</v>
+      </c>
+      <c r="I24" t="s">
+        <v>508</v>
+      </c>
+      <c r="J24" t="s">
+        <v>508</v>
+      </c>
+      <c r="K24" t="s">
+        <v>508</v>
+      </c>
+      <c r="L24" t="s">
+        <v>508</v>
+      </c>
+      <c r="M24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
+        <f>玩家卡牌配置表!C42</f>
+        <v>Boss防御</v>
+      </c>
+      <c r="B25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" t="s">
+        <v>509</v>
+      </c>
+      <c r="D25" t="s">
+        <v>509</v>
+      </c>
+      <c r="E25" t="s">
+        <v>509</v>
+      </c>
+      <c r="F25" t="s">
+        <v>509</v>
+      </c>
+      <c r="G25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H25" t="s">
+        <v>509</v>
+      </c>
+      <c r="I25" t="s">
+        <v>508</v>
+      </c>
+      <c r="J25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K25" t="s">
+        <v>508</v>
+      </c>
+      <c r="L25" t="s">
+        <v>508</v>
+      </c>
+      <c r="M25" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -47950,7 +48558,7 @@
         <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>330</v>
@@ -48120,7 +48728,7 @@
         <v>70</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.15">
@@ -49446,7 +50054,7 @@
     </row>
     <row r="14" spans="1:62" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F14" s="14" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.15">
@@ -50748,7 +51356,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="3:62" x14ac:dyDescent="0.15">
@@ -52089,7 +52697,7 @@
     </row>
     <row r="36" spans="3:62" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F36" s="14" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="3:62" x14ac:dyDescent="0.15">
@@ -53373,7 +53981,7 @@
         <v>63</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="3:62" x14ac:dyDescent="0.15">
@@ -54679,7 +55287,7 @@
         <v>84</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="3:62" x14ac:dyDescent="0.15">
@@ -55982,10 +56590,10 @@
     </row>
     <row r="69" spans="3:62" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C69" s="14" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="3:62" x14ac:dyDescent="0.15">
@@ -57318,7 +57926,7 @@
     </row>
     <row r="80" spans="3:62" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F80" s="14" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="3:62" x14ac:dyDescent="0.15">
@@ -58602,7 +59210,7 @@
         <v>92</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="3:62" x14ac:dyDescent="0.15">
@@ -59904,7 +60512,7 @@
         <v>96</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="3:62" x14ac:dyDescent="0.15">
@@ -61235,7 +61843,7 @@
     </row>
     <row r="113" spans="3:62" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F113" s="14" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="3:62" x14ac:dyDescent="0.15">
@@ -62535,7 +63143,7 @@
         <v>65</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="3:62" x14ac:dyDescent="0.15">
@@ -63837,7 +64445,7 @@
         <v>66</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="3:62" x14ac:dyDescent="0.15">
@@ -65155,7 +65763,7 @@
         <v>67</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="3:62" x14ac:dyDescent="0.15">
@@ -66496,7 +67104,7 @@
     </row>
     <row r="157" spans="3:62" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F157" s="14" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" spans="3:62" x14ac:dyDescent="0.15">
@@ -67786,7 +68394,7 @@
         <v>109</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" spans="3:62" x14ac:dyDescent="0.15">
@@ -69101,7 +69709,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -69125,7 +69733,7 @@
         <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
         <v>425</v>
@@ -69146,10 +69754,10 @@
         <v>286</v>
       </c>
       <c r="K1" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="L1" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -69164,7 +69772,7 @@
         <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -69205,7 +69813,7 @@
         <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -69246,7 +69854,7 @@
         <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -69283,7 +69891,7 @@
         <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -69320,7 +69928,7 @@
         <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -69361,7 +69969,7 @@
         <v>423</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -69398,7 +70006,7 @@
         <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -69439,7 +70047,7 @@
         <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -69476,7 +70084,7 @@
         <v>420</v>
       </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -69513,7 +70121,7 @@
         <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -69554,7 +70162,7 @@
         <v>422</v>
       </c>
       <c r="D12" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -69591,7 +70199,7 @@
         <v>420</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -69624,7 +70232,7 @@
         <v>423</v>
       </c>
       <c r="D14" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -69657,7 +70265,7 @@
         <v>421</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -69690,7 +70298,7 @@
         <v>423</v>
       </c>
       <c r="D16" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -69723,7 +70331,7 @@
         <v>421</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -69756,7 +70364,7 @@
         <v>421</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -69789,7 +70397,7 @@
         <v>421</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -69822,7 +70430,7 @@
         <v>423</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -69855,7 +70463,7 @@
         <v>420</v>
       </c>
       <c r="D21" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -69888,7 +70496,7 @@
         <v>420</v>
       </c>
       <c r="D22" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -69921,7 +70529,7 @@
         <v>420</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -69954,7 +70562,7 @@
         <v>423</v>
       </c>
       <c r="D24" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -69987,7 +70595,7 @@
         <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -70020,7 +70628,7 @@
         <v>423</v>
       </c>
       <c r="D26" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -70053,7 +70661,7 @@
         <v>422</v>
       </c>
       <c r="D27" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -70086,7 +70694,7 @@
         <v>420</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -70109,7 +70717,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -70118,7 +70726,7 @@
         <v>420</v>
       </c>
       <c r="D29" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -70151,7 +70759,7 @@
         <v>420</v>
       </c>
       <c r="D30" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -70184,7 +70792,7 @@
         <v>420</v>
       </c>
       <c r="D31" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -70217,7 +70825,7 @@
         <v>420</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -70250,7 +70858,7 @@
         <v>420</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -70283,7 +70891,7 @@
         <v>421</v>
       </c>
       <c r="D34" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -70316,7 +70924,7 @@
         <v>421</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -70349,7 +70957,7 @@
         <v>421</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E36">
         <v>1</v>

--- a/数值设计/标准数值.xlsx
+++ b/数值设计/标准数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="593" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="593" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="设计与公式" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2486,11 +2486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168470400"/>
-        <c:axId val="168579840"/>
+        <c:axId val="233110528"/>
+        <c:axId val="246420224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168470400"/>
+        <c:axId val="233110528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168579840"/>
+        <c:crossAx val="246420224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2507,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168579840"/>
+        <c:axId val="246420224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168470400"/>
+        <c:crossAx val="233110528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199611904"/>
-        <c:axId val="201611904"/>
+        <c:axId val="246459392"/>
+        <c:axId val="246547200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199611904"/>
+        <c:axId val="246459392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201611904"/>
+        <c:crossAx val="246547200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2693,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201611904"/>
+        <c:axId val="246547200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199611904"/>
+        <c:crossAx val="246459392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,11 +2798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209427840"/>
-        <c:axId val="132068480"/>
+        <c:axId val="250034048"/>
+        <c:axId val="250035584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209427840"/>
+        <c:axId val="250034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132068480"/>
+        <c:crossAx val="250035584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2819,7 +2819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132068480"/>
+        <c:axId val="250035584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209427840"/>
+        <c:crossAx val="250034048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2924,11 +2924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132076672"/>
-        <c:axId val="132078208"/>
+        <c:axId val="250047872"/>
+        <c:axId val="250061952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132076672"/>
+        <c:axId val="250047872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,7 +2937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132078208"/>
+        <c:crossAx val="250061952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2945,7 +2945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132078208"/>
+        <c:axId val="250061952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +2956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132076672"/>
+        <c:crossAx val="250047872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3051,11 +3051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132086400"/>
-        <c:axId val="132088192"/>
+        <c:axId val="250076160"/>
+        <c:axId val="251470592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132086400"/>
+        <c:axId val="250076160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132088192"/>
+        <c:crossAx val="251470592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3072,7 +3072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132088192"/>
+        <c:axId val="251470592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132086400"/>
+        <c:crossAx val="250076160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3508,11 +3508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163479552"/>
-        <c:axId val="163481088"/>
+        <c:axId val="252043264"/>
+        <c:axId val="252044800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163479552"/>
+        <c:axId val="252043264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,7 +3521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163481088"/>
+        <c:crossAx val="252044800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3529,7 +3529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163481088"/>
+        <c:axId val="252044800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163479552"/>
+        <c:crossAx val="252043264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9408,7 +9408,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -48399,12 +48399,12 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BJ178"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G159" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-      <selection pane="bottomRight" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/数值设计/标准数值.xlsx
+++ b/数值设计/标准数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="593" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="14805" windowHeight="7680" tabRatio="593" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="设计与公式" sheetId="2" r:id="rId1"/>
@@ -2486,11 +2486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233110528"/>
-        <c:axId val="246420224"/>
+        <c:axId val="156182016"/>
+        <c:axId val="156183552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233110528"/>
+        <c:axId val="156182016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246420224"/>
+        <c:crossAx val="156183552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2507,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246420224"/>
+        <c:axId val="156183552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233110528"/>
+        <c:crossAx val="156182016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246459392"/>
-        <c:axId val="246547200"/>
+        <c:axId val="156229632"/>
+        <c:axId val="156231168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246459392"/>
+        <c:axId val="156229632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246547200"/>
+        <c:crossAx val="156231168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2693,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246547200"/>
+        <c:axId val="156231168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246459392"/>
+        <c:crossAx val="156229632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,11 +2798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250034048"/>
-        <c:axId val="250035584"/>
+        <c:axId val="157158016"/>
+        <c:axId val="157159808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250034048"/>
+        <c:axId val="157158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250035584"/>
+        <c:crossAx val="157159808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2819,7 +2819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250035584"/>
+        <c:axId val="157159808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250034048"/>
+        <c:crossAx val="157158016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2924,11 +2924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250047872"/>
-        <c:axId val="250061952"/>
+        <c:axId val="157194112"/>
+        <c:axId val="157195648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250047872"/>
+        <c:axId val="157194112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,7 +2937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250061952"/>
+        <c:crossAx val="157195648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2945,7 +2945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250061952"/>
+        <c:axId val="157195648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +2956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250047872"/>
+        <c:crossAx val="157194112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3051,11 +3051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250076160"/>
-        <c:axId val="251470592"/>
+        <c:axId val="157212032"/>
+        <c:axId val="159659136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250076160"/>
+        <c:axId val="157212032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251470592"/>
+        <c:crossAx val="159659136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3072,7 +3072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251470592"/>
+        <c:axId val="159659136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250076160"/>
+        <c:crossAx val="157212032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3508,11 +3508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252043264"/>
-        <c:axId val="252044800"/>
+        <c:axId val="160822016"/>
+        <c:axId val="160823552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252043264"/>
+        <c:axId val="160822016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,7 +3521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252044800"/>
+        <c:crossAx val="160823552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3529,7 +3529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252044800"/>
+        <c:axId val="160823552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252043264"/>
+        <c:crossAx val="160822016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -48400,11 +48400,11 @@
   <dimension ref="A1:BJ178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G69" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="A3:XFD13"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
